--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="36">
   <si>
     <t>Dato</t>
   </si>
@@ -111,6 +111,15 @@
   <si>
     <t>Ahmed Abusaada</t>
   </si>
+  <si>
+    <t>Adrian Torvund</t>
+  </si>
+  <si>
+    <t>Erik Nordhagen</t>
+  </si>
+  <si>
+    <t>Johannes Aarra</t>
+  </si>
 </sst>
 </file>
 
@@ -143,12 +152,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,7 +391,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3671,6 +3683,2302 @@
       </c>
       <c r="D236" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>2.0240706E7</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>2.0240715E7</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>2.0240722E7</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>2.0240725E7</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>2.0240725E7</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>2.0240725E7</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>2.0240725E7</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>2.0240725E7</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>2.0240728E7</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>2.0240803E7</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>2.024081E7</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>2.0240817E7</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>2.0240825E7</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>2.0240831E7</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>2.0240908E7</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>2.0241002E7</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>2.0241002E7</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>2.0241002E7</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>2.0241002E7</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>2.0241002E7</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>2.0241008E7</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>2.024103E7</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1">
+        <v>2.0241104E7</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1">
+        <v>2.0241112E7</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="48">
   <si>
     <t>Dato</t>
   </si>
@@ -119,6 +119,42 @@
   </si>
   <si>
     <t>Johannes Aarra</t>
+  </si>
+  <si>
+    <t>Sami Bwoy IV</t>
+  </si>
+  <si>
+    <t>Rodas Breezy</t>
+  </si>
+  <si>
+    <t>Haakon Jordal</t>
+  </si>
+  <si>
+    <t>Henrik Haukefer Hauan</t>
+  </si>
+  <si>
+    <t>Anders Paulseth</t>
+  </si>
+  <si>
+    <t>Sondre Svendsen</t>
+  </si>
+  <si>
+    <t>Shewit Weldeslasie</t>
+  </si>
+  <si>
+    <t>Chewan Pokhrel</t>
+  </si>
+  <si>
+    <t>Jonas Tron Hatlem</t>
+  </si>
+  <si>
+    <t>Ionut Mititelu</t>
+  </si>
+  <si>
+    <t>Thomas Iyob</t>
+  </si>
+  <si>
+    <t>Maria Håland Alvik</t>
   </si>
 </sst>
 </file>
@@ -5981,6 +6017,3856 @@
         <v>5</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1">
+        <v>2.025012E7</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1">
+        <v>2.0250126E7</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1">
+        <v>2.0250203E7</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1">
+        <v>2.0250209E7</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1">
+        <v>2.0250218E7</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1">
+        <v>2.0250223E7</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1">
+        <v>2.0250302E7</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1">
+        <v>2.025031E7</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1">
+        <v>2.0250316E7</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1">
+        <v>2.0250323E7</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1">
+        <v>2.025033E7</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1">
+        <v>2.0250406E7</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1">
+        <v>2.0250413E7</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1">
+        <v>2.025042E7</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1">
+        <v>2.0250427E7</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1">
+        <v>2.0250504E7</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1">
+        <v>2.0250511E7</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1">
+        <v>2.0250518E7</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -5613,7 +5613,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>6</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>12</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>21</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>16</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>8</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>18</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>10</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>19</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>24</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>7</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>13</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>35</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1">
-        <v>2.024103E7</v>
+        <v>2.0241028E7</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>33</v>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="48">
   <si>
     <t>Dato</t>
   </si>
@@ -9867,6 +9867,244 @@
         <v>9</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1">
+        <v>2.0250526E7</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="50">
   <si>
     <t>Dato</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Maria Håland Alvik</t>
+  </si>
+  <si>
+    <t>Kapilan Kandasamy</t>
+  </si>
+  <si>
+    <t>Edgars Laizans</t>
   </si>
 </sst>
 </file>
@@ -10105,6 +10111,832 @@
         <v>9</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1">
+        <v>2.0250601E7</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1">
+        <v>2.0250609E7</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1">
+        <v>2.0250615E7</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="57">
   <si>
     <t>Dato</t>
   </si>
@@ -161,6 +161,27 @@
   </si>
   <si>
     <t>Edgars Laizans</t>
+  </si>
+  <si>
+    <t>Rubab Ishmam</t>
+  </si>
+  <si>
+    <t>Yaser Almohamad</t>
+  </si>
+  <si>
+    <t>Tobias Skjæveland</t>
+  </si>
+  <si>
+    <t>Andreas Envy</t>
+  </si>
+  <si>
+    <t>Robin Opdahl</t>
+  </si>
+  <si>
+    <t>Harold Rodriguez</t>
+  </si>
+  <si>
+    <t>Sidiki Conde</t>
   </si>
 </sst>
 </file>
@@ -10937,6 +10958,7131 @@
         <v>9</v>
       </c>
     </row>
+    <row r="752">
+      <c r="A752" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1">
+        <v>2.0250622E7</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1">
+        <v>2.0250629E7</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1">
+        <v>2.0250706E7</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1">
+        <v>2.0250714E7</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1">
+        <v>2.0250722E7</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1">
+        <v>2.0250811E7</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1">
+        <v>2.0250819E7</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1">
+        <v>2.0250825E7</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1">
+        <v>2.0250831E7</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1">
+        <v>2.0250908E7</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1">
+        <v>2.0250914E7</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1">
+        <v>2.0250923E7</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1">
+        <v>2.0250929E7</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1">
+        <v>2.0251006E7</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1">
+        <v>2.0251013E7</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1">
+        <v>2.025102E7</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1">
+        <v>2.0251027E7</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1">
+        <v>2.0251103E7</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1">
+        <v>2.0251109E7</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="B1058" s="1"/>
+    </row>
+    <row r="1059">
+      <c r="B1059" s="1"/>
+    </row>
+    <row r="1060">
+      <c r="B1060" s="1"/>
+    </row>
+    <row r="1061">
+      <c r="B1061" s="1"/>
+    </row>
+    <row r="1062">
+      <c r="B1062" s="1"/>
+    </row>
+    <row r="1063">
+      <c r="B1063" s="1"/>
+    </row>
+    <row r="1064">
+      <c r="B1064" s="1"/>
+    </row>
+    <row r="1065">
+      <c r="B1065" s="1"/>
+    </row>
+    <row r="1066">
+      <c r="B1066" s="1"/>
+    </row>
+    <row r="1067">
+      <c r="B1067" s="1"/>
+    </row>
+    <row r="1068">
+      <c r="B1068" s="1"/>
+    </row>
+    <row r="1069">
+      <c r="B1069" s="1"/>
+    </row>
+    <row r="1070">
+      <c r="B1070" s="1"/>
+    </row>
+    <row r="1071">
+      <c r="B1071" s="1"/>
+    </row>
+    <row r="1072">
+      <c r="B1072" s="1"/>
+    </row>
+    <row r="1073">
+      <c r="B1073" s="1"/>
+    </row>
+    <row r="1074">
+      <c r="B1074" s="1"/>
+    </row>
+    <row r="1075">
+      <c r="B1075" s="1"/>
+    </row>
+    <row r="1076">
+      <c r="B1076" s="1"/>
+    </row>
+    <row r="1077">
+      <c r="B1077" s="1"/>
+    </row>
+    <row r="1078">
+      <c r="B1078" s="1"/>
+    </row>
+    <row r="1079">
+      <c r="B1079" s="1"/>
+    </row>
+    <row r="1080">
+      <c r="B1080" s="1"/>
+    </row>
+    <row r="1081">
+      <c r="B1081" s="1"/>
+    </row>
+    <row r="1082">
+      <c r="B1082" s="1"/>
+    </row>
+    <row r="1083">
+      <c r="B1083" s="1"/>
+    </row>
+    <row r="1084">
+      <c r="B1084" s="1"/>
+    </row>
+    <row r="1085">
+      <c r="B1085" s="1"/>
+    </row>
+    <row r="1086">
+      <c r="B1086" s="1"/>
+    </row>
+    <row r="1087">
+      <c r="B1087" s="1"/>
+    </row>
+    <row r="1088">
+      <c r="B1088" s="1"/>
+    </row>
+    <row r="1089">
+      <c r="B1089" s="1"/>
+    </row>
+    <row r="1090">
+      <c r="B1090" s="1"/>
+    </row>
+    <row r="1091">
+      <c r="B1091" s="1"/>
+    </row>
+    <row r="1092">
+      <c r="B1092" s="1"/>
+    </row>
+    <row r="1093">
+      <c r="B1093" s="1"/>
+    </row>
+    <row r="1094">
+      <c r="B1094" s="1"/>
+    </row>
+    <row r="1095">
+      <c r="B1095" s="1"/>
+    </row>
+    <row r="1096">
+      <c r="B1096" s="1"/>
+    </row>
+    <row r="1097">
+      <c r="B1097" s="1"/>
+    </row>
+    <row r="1098">
+      <c r="B1098" s="1"/>
+    </row>
+    <row r="1099">
+      <c r="B1099" s="1"/>
+    </row>
+    <row r="1100">
+      <c r="B1100" s="1"/>
+    </row>
+    <row r="1101">
+      <c r="B1101" s="1"/>
+    </row>
+    <row r="1102">
+      <c r="B1102" s="1"/>
+    </row>
+    <row r="1103">
+      <c r="B1103" s="1"/>
+    </row>
+    <row r="1104">
+      <c r="B1104" s="1"/>
+    </row>
+    <row r="1105">
+      <c r="B1105" s="1"/>
+    </row>
+    <row r="1106">
+      <c r="B1106" s="1"/>
+    </row>
+    <row r="1107">
+      <c r="B1107" s="1"/>
+    </row>
+    <row r="1108">
+      <c r="B1108" s="1"/>
+    </row>
+    <row r="1109">
+      <c r="B1109" s="1"/>
+    </row>
+    <row r="1110">
+      <c r="B1110" s="1"/>
+    </row>
+    <row r="1111">
+      <c r="B1111" s="1"/>
+    </row>
+    <row r="1112">
+      <c r="B1112" s="1"/>
+    </row>
+    <row r="1113">
+      <c r="B1113" s="1"/>
+    </row>
+    <row r="1114">
+      <c r="B1114" s="1"/>
+    </row>
+    <row r="1115">
+      <c r="B1115" s="1"/>
+    </row>
+    <row r="1116">
+      <c r="B1116" s="1"/>
+    </row>
+    <row r="1117">
+      <c r="B1117" s="1"/>
+    </row>
+    <row r="1118">
+      <c r="B1118" s="1"/>
+    </row>
+    <row r="1119">
+      <c r="B1119" s="1"/>
+    </row>
+    <row r="1120">
+      <c r="B1120" s="1"/>
+    </row>
+    <row r="1121">
+      <c r="B1121" s="1"/>
+    </row>
+    <row r="1122">
+      <c r="B1122" s="1"/>
+    </row>
+    <row r="1123">
+      <c r="B1123" s="1"/>
+    </row>
+    <row r="1124">
+      <c r="B1124" s="1"/>
+    </row>
+    <row r="1125">
+      <c r="B1125" s="1"/>
+    </row>
+    <row r="1126">
+      <c r="B1126" s="1"/>
+    </row>
+    <row r="1127">
+      <c r="B1127" s="1"/>
+    </row>
+    <row r="1128">
+      <c r="B1128" s="1"/>
+    </row>
+    <row r="1129">
+      <c r="B1129" s="1"/>
+    </row>
+    <row r="1130">
+      <c r="B1130" s="1"/>
+    </row>
+    <row r="1131">
+      <c r="B1131" s="1"/>
+    </row>
+    <row r="1132">
+      <c r="B1132" s="1"/>
+    </row>
+    <row r="1133">
+      <c r="B1133" s="1"/>
+    </row>
+    <row r="1134">
+      <c r="B1134" s="1"/>
+    </row>
+    <row r="1135">
+      <c r="B1135" s="1"/>
+    </row>
+    <row r="1136">
+      <c r="B1136" s="1"/>
+    </row>
+    <row r="1137">
+      <c r="B1137" s="1"/>
+    </row>
+    <row r="1138">
+      <c r="B1138" s="1"/>
+    </row>
+    <row r="1139">
+      <c r="B1139" s="1"/>
+    </row>
+    <row r="1140">
+      <c r="B1140" s="1"/>
+    </row>
+    <row r="1141">
+      <c r="B1141" s="1"/>
+    </row>
+    <row r="1142">
+      <c r="B1142" s="1"/>
+    </row>
+    <row r="1143">
+      <c r="B1143" s="1"/>
+    </row>
+    <row r="1144">
+      <c r="B1144" s="1"/>
+    </row>
+    <row r="1145">
+      <c r="B1145" s="1"/>
+    </row>
+    <row r="1146">
+      <c r="B1146" s="1"/>
+    </row>
+    <row r="1147">
+      <c r="B1147" s="1"/>
+    </row>
+    <row r="1148">
+      <c r="B1148" s="1"/>
+    </row>
+    <row r="1149">
+      <c r="B1149" s="1"/>
+    </row>
+    <row r="1150">
+      <c r="B1150" s="1"/>
+    </row>
+    <row r="1151">
+      <c r="B1151" s="1"/>
+    </row>
+    <row r="1152">
+      <c r="B1152" s="1"/>
+    </row>
+    <row r="1153">
+      <c r="B1153" s="1"/>
+    </row>
+    <row r="1154">
+      <c r="B1154" s="1"/>
+    </row>
+    <row r="1155">
+      <c r="B1155" s="1"/>
+    </row>
+    <row r="1156">
+      <c r="B1156" s="1"/>
+    </row>
+    <row r="1157">
+      <c r="B1157" s="1"/>
+    </row>
+    <row r="1158">
+      <c r="B1158" s="1"/>
+    </row>
+    <row r="1159">
+      <c r="B1159" s="1"/>
+    </row>
+    <row r="1160">
+      <c r="B1160" s="1"/>
+    </row>
+    <row r="1161">
+      <c r="B1161" s="1"/>
+    </row>
+    <row r="1162">
+      <c r="B1162" s="1"/>
+    </row>
+    <row r="1163">
+      <c r="B1163" s="1"/>
+    </row>
+    <row r="1164">
+      <c r="B1164" s="1"/>
+    </row>
+    <row r="1165">
+      <c r="B1165" s="1"/>
+    </row>
+    <row r="1166">
+      <c r="B1166" s="1"/>
+    </row>
+    <row r="1167">
+      <c r="B1167" s="1"/>
+    </row>
+    <row r="1168">
+      <c r="B1168" s="1"/>
+    </row>
+    <row r="1169">
+      <c r="B1169" s="1"/>
+    </row>
+    <row r="1170">
+      <c r="B1170" s="1"/>
+    </row>
+    <row r="1171">
+      <c r="B1171" s="1"/>
+    </row>
+    <row r="1172">
+      <c r="B1172" s="1"/>
+    </row>
+    <row r="1173">
+      <c r="B1173" s="1"/>
+    </row>
+    <row r="1174">
+      <c r="B1174" s="1"/>
+    </row>
+    <row r="1175">
+      <c r="B1175" s="1"/>
+    </row>
+    <row r="1176">
+      <c r="B1176" s="1"/>
+    </row>
+    <row r="1177">
+      <c r="B1177" s="1"/>
+    </row>
+    <row r="1178">
+      <c r="B1178" s="1"/>
+    </row>
+    <row r="1179">
+      <c r="B1179" s="1"/>
+    </row>
+    <row r="1180">
+      <c r="B1180" s="1"/>
+    </row>
+    <row r="1181">
+      <c r="B1181" s="1"/>
+    </row>
+    <row r="1182">
+      <c r="B1182" s="1"/>
+    </row>
+    <row r="1183">
+      <c r="B1183" s="1"/>
+    </row>
+    <row r="1184">
+      <c r="B1184" s="1"/>
+    </row>
+    <row r="1185">
+      <c r="B1185" s="1"/>
+    </row>
+    <row r="1186">
+      <c r="B1186" s="1"/>
+    </row>
+    <row r="1187">
+      <c r="B1187" s="1"/>
+    </row>
+    <row r="1188">
+      <c r="B1188" s="1"/>
+    </row>
+    <row r="1189">
+      <c r="B1189" s="1"/>
+    </row>
+    <row r="1190">
+      <c r="B1190" s="1"/>
+    </row>
+    <row r="1191">
+      <c r="B1191" s="1"/>
+    </row>
+    <row r="1192">
+      <c r="B1192" s="1"/>
+    </row>
+    <row r="1193">
+      <c r="B1193" s="1"/>
+    </row>
+    <row r="1194">
+      <c r="B1194" s="1"/>
+    </row>
+    <row r="1195">
+      <c r="B1195" s="1"/>
+    </row>
+    <row r="1196">
+      <c r="B1196" s="1"/>
+    </row>
+    <row r="1197">
+      <c r="B1197" s="1"/>
+    </row>
+    <row r="1198">
+      <c r="B1198" s="1"/>
+    </row>
+    <row r="1199">
+      <c r="B1199" s="1"/>
+    </row>
+    <row r="1200">
+      <c r="B1200" s="1"/>
+    </row>
+    <row r="1201">
+      <c r="B1201" s="1"/>
+    </row>
+    <row r="1202">
+      <c r="B1202" s="1"/>
+    </row>
+    <row r="1203">
+      <c r="B1203" s="1"/>
+    </row>
+    <row r="1204">
+      <c r="B1204" s="1"/>
+    </row>
+    <row r="1205">
+      <c r="B1205" s="1"/>
+    </row>
+    <row r="1206">
+      <c r="B1206" s="1"/>
+    </row>
+    <row r="1207">
+      <c r="B1207" s="1"/>
+    </row>
+    <row r="1208">
+      <c r="B1208" s="1"/>
+    </row>
+    <row r="1209">
+      <c r="B1209" s="1"/>
+    </row>
+    <row r="1210">
+      <c r="B1210" s="1"/>
+    </row>
+    <row r="1211">
+      <c r="B1211" s="1"/>
+    </row>
+    <row r="1212">
+      <c r="B1212" s="1"/>
+    </row>
+    <row r="1213">
+      <c r="B1213" s="1"/>
+    </row>
+    <row r="1214">
+      <c r="B1214" s="1"/>
+    </row>
+    <row r="1215">
+      <c r="B1215" s="1"/>
+    </row>
+    <row r="1216">
+      <c r="B1216" s="1"/>
+    </row>
+    <row r="1217">
+      <c r="B1217" s="1"/>
+    </row>
+    <row r="1218">
+      <c r="B1218" s="1"/>
+    </row>
+    <row r="1219">
+      <c r="B1219" s="1"/>
+    </row>
+    <row r="1220">
+      <c r="B1220" s="1"/>
+    </row>
+    <row r="1221">
+      <c r="B1221" s="1"/>
+    </row>
+    <row r="1222">
+      <c r="B1222" s="1"/>
+    </row>
+    <row r="1223">
+      <c r="B1223" s="1"/>
+    </row>
+    <row r="1224">
+      <c r="B1224" s="1"/>
+    </row>
+    <row r="1225">
+      <c r="B1225" s="1"/>
+    </row>
+    <row r="1226">
+      <c r="B1226" s="1"/>
+    </row>
+    <row r="1227">
+      <c r="B1227" s="1"/>
+    </row>
+    <row r="1228">
+      <c r="B1228" s="1"/>
+    </row>
+    <row r="1229">
+      <c r="B1229" s="1"/>
+    </row>
+    <row r="1230">
+      <c r="B1230" s="1"/>
+    </row>
+    <row r="1231">
+      <c r="B1231" s="1"/>
+    </row>
+    <row r="1232">
+      <c r="B1232" s="1"/>
+    </row>
+    <row r="1233">
+      <c r="B1233" s="1"/>
+    </row>
+    <row r="1234">
+      <c r="B1234" s="1"/>
+    </row>
+    <row r="1235">
+      <c r="B1235" s="1"/>
+    </row>
+    <row r="1236">
+      <c r="B1236" s="1"/>
+    </row>
+    <row r="1237">
+      <c r="B1237" s="1"/>
+    </row>
+    <row r="1238">
+      <c r="B1238" s="1"/>
+    </row>
+    <row r="1239">
+      <c r="B1239" s="1"/>
+    </row>
+    <row r="1240">
+      <c r="B1240" s="1"/>
+    </row>
+    <row r="1241">
+      <c r="B1241" s="1"/>
+    </row>
+    <row r="1242">
+      <c r="B1242" s="1"/>
+    </row>
+    <row r="1243">
+      <c r="B1243" s="1"/>
+    </row>
+    <row r="1244">
+      <c r="B1244" s="1"/>
+    </row>
+    <row r="1245">
+      <c r="B1245" s="1"/>
+    </row>
+    <row r="1246">
+      <c r="B1246" s="1"/>
+    </row>
+    <row r="1247">
+      <c r="B1247" s="1"/>
+    </row>
+    <row r="1248">
+      <c r="B1248" s="1"/>
+    </row>
+    <row r="1249">
+      <c r="B1249" s="1"/>
+    </row>
+    <row r="1250">
+      <c r="B1250" s="1"/>
+    </row>
+    <row r="1251">
+      <c r="B1251" s="1"/>
+    </row>
+    <row r="1252">
+      <c r="B1252" s="1"/>
+    </row>
+    <row r="1253">
+      <c r="B1253" s="1"/>
+    </row>
+    <row r="1254">
+      <c r="B1254" s="1"/>
+    </row>
+    <row r="1255">
+      <c r="B1255" s="1"/>
+    </row>
+    <row r="1256">
+      <c r="B1256" s="1"/>
+    </row>
+    <row r="1257">
+      <c r="B1257" s="1"/>
+    </row>
+    <row r="1258">
+      <c r="B1258" s="1"/>
+    </row>
+    <row r="1259">
+      <c r="B1259" s="1"/>
+    </row>
+    <row r="1260">
+      <c r="B1260" s="1"/>
+    </row>
+    <row r="1261">
+      <c r="B1261" s="1"/>
+    </row>
+    <row r="1262">
+      <c r="B1262" s="1"/>
+    </row>
+    <row r="1263">
+      <c r="B1263" s="1"/>
+    </row>
+    <row r="1264">
+      <c r="B1264" s="1"/>
+    </row>
+    <row r="1265">
+      <c r="B1265" s="1"/>
+    </row>
+    <row r="1266">
+      <c r="B1266" s="1"/>
+    </row>
+    <row r="1267">
+      <c r="B1267" s="1"/>
+    </row>
+    <row r="1268">
+      <c r="B1268" s="1"/>
+    </row>
+    <row r="1269">
+      <c r="B1269" s="1"/>
+    </row>
+    <row r="1270">
+      <c r="B1270" s="1"/>
+    </row>
+    <row r="1271">
+      <c r="B1271" s="1"/>
+    </row>
+    <row r="1272">
+      <c r="B1272" s="1"/>
+    </row>
+    <row r="1273">
+      <c r="B1273" s="1"/>
+    </row>
+    <row r="1274">
+      <c r="B1274" s="1"/>
+    </row>
+    <row r="1275">
+      <c r="B1275" s="1"/>
+    </row>
+    <row r="1276">
+      <c r="B1276" s="1"/>
+    </row>
+    <row r="1277">
+      <c r="B1277" s="1"/>
+    </row>
+    <row r="1278">
+      <c r="B1278" s="1"/>
+    </row>
+    <row r="1279">
+      <c r="B1279" s="1"/>
+    </row>
+    <row r="1280">
+      <c r="B1280" s="1"/>
+    </row>
+    <row r="1281">
+      <c r="B1281" s="1"/>
+    </row>
+    <row r="1282">
+      <c r="B1282" s="1"/>
+    </row>
+    <row r="1283">
+      <c r="B1283" s="1"/>
+    </row>
+    <row r="1284">
+      <c r="B1284" s="1"/>
+    </row>
+    <row r="1285">
+      <c r="B1285" s="1"/>
+    </row>
+    <row r="1286">
+      <c r="B1286" s="1"/>
+    </row>
+    <row r="1287">
+      <c r="B1287" s="1"/>
+    </row>
+    <row r="1288">
+      <c r="B1288" s="1"/>
+    </row>
+    <row r="1289">
+      <c r="B1289" s="1"/>
+    </row>
+    <row r="1290">
+      <c r="B1290" s="1"/>
+    </row>
+    <row r="1291">
+      <c r="B1291" s="1"/>
+    </row>
+    <row r="1292">
+      <c r="B1292" s="1"/>
+    </row>
+    <row r="1293">
+      <c r="B1293" s="1"/>
+    </row>
+    <row r="1294">
+      <c r="B1294" s="1"/>
+    </row>
+    <row r="1295">
+      <c r="B1295" s="1"/>
+    </row>
+    <row r="1296">
+      <c r="B1296" s="1"/>
+    </row>
+    <row r="1297">
+      <c r="B1297" s="1"/>
+    </row>
+    <row r="1298">
+      <c r="B1298" s="1"/>
+    </row>
+    <row r="1299">
+      <c r="B1299" s="1"/>
+    </row>
+    <row r="1300">
+      <c r="B1300" s="1"/>
+    </row>
+    <row r="1301">
+      <c r="B1301" s="1"/>
+    </row>
+    <row r="1302">
+      <c r="B1302" s="1"/>
+    </row>
+    <row r="1303">
+      <c r="B1303" s="1"/>
+    </row>
+    <row r="1304">
+      <c r="B1304" s="1"/>
+    </row>
+    <row r="1305">
+      <c r="B1305" s="1"/>
+    </row>
+    <row r="1306">
+      <c r="B1306" s="1"/>
+    </row>
+    <row r="1307">
+      <c r="B1307" s="1"/>
+    </row>
+    <row r="1308">
+      <c r="B1308" s="1"/>
+    </row>
+    <row r="1309">
+      <c r="B1309" s="1"/>
+    </row>
+    <row r="1310">
+      <c r="B1310" s="1"/>
+    </row>
+    <row r="1311">
+      <c r="B1311" s="1"/>
+    </row>
+    <row r="1312">
+      <c r="B1312" s="1"/>
+    </row>
+    <row r="1313">
+      <c r="B1313" s="1"/>
+    </row>
+    <row r="1314">
+      <c r="B1314" s="1"/>
+    </row>
+    <row r="1315">
+      <c r="B1315" s="1"/>
+    </row>
+    <row r="1316">
+      <c r="B1316" s="1"/>
+    </row>
+    <row r="1317">
+      <c r="B1317" s="1"/>
+    </row>
+    <row r="1318">
+      <c r="B1318" s="1"/>
+    </row>
+    <row r="1319">
+      <c r="B1319" s="1"/>
+    </row>
+    <row r="1320">
+      <c r="B1320" s="1"/>
+    </row>
+    <row r="1321">
+      <c r="B1321" s="1"/>
+    </row>
+    <row r="1322">
+      <c r="B1322" s="1"/>
+    </row>
+    <row r="1323">
+      <c r="B1323" s="1"/>
+    </row>
+    <row r="1324">
+      <c r="B1324" s="1"/>
+    </row>
+    <row r="1325">
+      <c r="B1325" s="1"/>
+    </row>
+    <row r="1326">
+      <c r="B1326" s="1"/>
+    </row>
+    <row r="1327">
+      <c r="B1327" s="1"/>
+    </row>
+    <row r="1328">
+      <c r="B1328" s="1"/>
+    </row>
+    <row r="1329">
+      <c r="B1329" s="1"/>
+    </row>
+    <row r="1330">
+      <c r="B1330" s="1"/>
+    </row>
+    <row r="1331">
+      <c r="B1331" s="1"/>
+    </row>
+    <row r="1332">
+      <c r="B1332" s="1"/>
+    </row>
+    <row r="1333">
+      <c r="B1333" s="1"/>
+    </row>
+    <row r="1334">
+      <c r="B1334" s="1"/>
+    </row>
+    <row r="1335">
+      <c r="B1335" s="1"/>
+    </row>
+    <row r="1336">
+      <c r="B1336" s="1"/>
+    </row>
+    <row r="1337">
+      <c r="B1337" s="1"/>
+    </row>
+    <row r="1338">
+      <c r="B1338" s="1"/>
+    </row>
+    <row r="1339">
+      <c r="B1339" s="1"/>
+    </row>
+    <row r="1340">
+      <c r="B1340" s="1"/>
+    </row>
+    <row r="1341">
+      <c r="B1341" s="1"/>
+    </row>
+    <row r="1342">
+      <c r="B1342" s="1"/>
+    </row>
+    <row r="1343">
+      <c r="B1343" s="1"/>
+    </row>
+    <row r="1344">
+      <c r="B1344" s="1"/>
+    </row>
+    <row r="1345">
+      <c r="B1345" s="1"/>
+    </row>
+    <row r="1346">
+      <c r="B1346" s="1"/>
+    </row>
+    <row r="1347">
+      <c r="B1347" s="1"/>
+    </row>
+    <row r="1348">
+      <c r="B1348" s="1"/>
+    </row>
+    <row r="1349">
+      <c r="B1349" s="1"/>
+    </row>
+    <row r="1350">
+      <c r="B1350" s="1"/>
+    </row>
+    <row r="1351">
+      <c r="B1351" s="1"/>
+    </row>
+    <row r="1352">
+      <c r="B1352" s="1"/>
+    </row>
+    <row r="1353">
+      <c r="B1353" s="1"/>
+    </row>
+    <row r="1354">
+      <c r="B1354" s="1"/>
+    </row>
+    <row r="1355">
+      <c r="B1355" s="1"/>
+    </row>
+    <row r="1356">
+      <c r="B1356" s="1"/>
+    </row>
+    <row r="1357">
+      <c r="B1357" s="1"/>
+    </row>
+    <row r="1358">
+      <c r="B1358" s="1"/>
+    </row>
+    <row r="1359">
+      <c r="B1359" s="1"/>
+    </row>
+    <row r="1360">
+      <c r="B1360" s="1"/>
+    </row>
+    <row r="1361">
+      <c r="B1361" s="1"/>
+    </row>
+    <row r="1362">
+      <c r="B1362" s="1"/>
+    </row>
+    <row r="1363">
+      <c r="B1363" s="1"/>
+    </row>
+    <row r="1364">
+      <c r="B1364" s="1"/>
+    </row>
+    <row r="1365">
+      <c r="B1365" s="1"/>
+    </row>
+    <row r="1366">
+      <c r="B1366" s="1"/>
+    </row>
+    <row r="1367">
+      <c r="B1367" s="1"/>
+    </row>
+    <row r="1368">
+      <c r="B1368" s="1"/>
+    </row>
+    <row r="1369">
+      <c r="B1369" s="1"/>
+    </row>
+    <row r="1370">
+      <c r="B1370" s="1"/>
+    </row>
+    <row r="1371">
+      <c r="B1371" s="1"/>
+    </row>
+    <row r="1372">
+      <c r="B1372" s="1"/>
+    </row>
+    <row r="1373">
+      <c r="B1373" s="1"/>
+    </row>
+    <row r="1374">
+      <c r="B1374" s="1"/>
+    </row>
+    <row r="1375">
+      <c r="B1375" s="1"/>
+    </row>
+    <row r="1376">
+      <c r="B1376" s="1"/>
+    </row>
+    <row r="1377">
+      <c r="B1377" s="1"/>
+    </row>
+    <row r="1378">
+      <c r="B1378" s="1"/>
+    </row>
+    <row r="1379">
+      <c r="B1379" s="1"/>
+    </row>
+    <row r="1380">
+      <c r="B1380" s="1"/>
+    </row>
+    <row r="1381">
+      <c r="B1381" s="1"/>
+    </row>
+    <row r="1382">
+      <c r="B1382" s="1"/>
+    </row>
+    <row r="1383">
+      <c r="B1383" s="1"/>
+    </row>
+    <row r="1384">
+      <c r="B1384" s="1"/>
+    </row>
+    <row r="1385">
+      <c r="B1385" s="1"/>
+    </row>
+    <row r="1386">
+      <c r="B1386" s="1"/>
+    </row>
+    <row r="1387">
+      <c r="B1387" s="1"/>
+    </row>
+    <row r="1388">
+      <c r="B1388" s="1"/>
+    </row>
+    <row r="1389">
+      <c r="B1389" s="1"/>
+    </row>
+    <row r="1390">
+      <c r="B1390" s="1"/>
+    </row>
+    <row r="1391">
+      <c r="B1391" s="1"/>
+    </row>
+    <row r="1392">
+      <c r="B1392" s="1"/>
+    </row>
+    <row r="1393">
+      <c r="B1393" s="1"/>
+    </row>
+    <row r="1394">
+      <c r="B1394" s="1"/>
+    </row>
+    <row r="1395">
+      <c r="B1395" s="1"/>
+    </row>
+    <row r="1396">
+      <c r="B1396" s="1"/>
+    </row>
+    <row r="1397">
+      <c r="B1397" s="1"/>
+    </row>
+    <row r="1398">
+      <c r="B1398" s="1"/>
+    </row>
+    <row r="1399">
+      <c r="B1399" s="1"/>
+    </row>
+    <row r="1400">
+      <c r="B1400" s="1"/>
+    </row>
+    <row r="1401">
+      <c r="B1401" s="1"/>
+    </row>
+    <row r="1402">
+      <c r="B1402" s="1"/>
+    </row>
+    <row r="1403">
+      <c r="B1403" s="1"/>
+    </row>
+    <row r="1404">
+      <c r="B1404" s="1"/>
+    </row>
+    <row r="1405">
+      <c r="B1405" s="1"/>
+    </row>
+    <row r="1406">
+      <c r="B1406" s="1"/>
+    </row>
+    <row r="1407">
+      <c r="B1407" s="1"/>
+    </row>
+    <row r="1408">
+      <c r="B1408" s="1"/>
+    </row>
+    <row r="1409">
+      <c r="B1409" s="1"/>
+    </row>
+    <row r="1410">
+      <c r="B1410" s="1"/>
+    </row>
+    <row r="1411">
+      <c r="B1411" s="1"/>
+    </row>
+    <row r="1412">
+      <c r="B1412" s="1"/>
+    </row>
+    <row r="1413">
+      <c r="B1413" s="1"/>
+    </row>
+    <row r="1414">
+      <c r="B1414" s="1"/>
+    </row>
+    <row r="1415">
+      <c r="B1415" s="1"/>
+    </row>
+    <row r="1416">
+      <c r="B1416" s="1"/>
+    </row>
+    <row r="1417">
+      <c r="B1417" s="1"/>
+    </row>
+    <row r="1418">
+      <c r="B1418" s="1"/>
+    </row>
+    <row r="1419">
+      <c r="B1419" s="1"/>
+    </row>
+    <row r="1420">
+      <c r="B1420" s="1"/>
+    </row>
+    <row r="1421">
+      <c r="B1421" s="1"/>
+    </row>
+    <row r="1422">
+      <c r="B1422" s="1"/>
+    </row>
+    <row r="1423">
+      <c r="B1423" s="1"/>
+    </row>
+    <row r="1424">
+      <c r="B1424" s="1"/>
+    </row>
+    <row r="1425">
+      <c r="B1425" s="1"/>
+    </row>
+    <row r="1426">
+      <c r="B1426" s="1"/>
+    </row>
+    <row r="1427">
+      <c r="B1427" s="1"/>
+    </row>
+    <row r="1428">
+      <c r="B1428" s="1"/>
+    </row>
+    <row r="1429">
+      <c r="B1429" s="1"/>
+    </row>
+    <row r="1430">
+      <c r="B1430" s="1"/>
+    </row>
+    <row r="1431">
+      <c r="B1431" s="1"/>
+    </row>
+    <row r="1432">
+      <c r="B1432" s="1"/>
+    </row>
+    <row r="1433">
+      <c r="B1433" s="1"/>
+    </row>
+    <row r="1434">
+      <c r="B1434" s="1"/>
+    </row>
+    <row r="1435">
+      <c r="B1435" s="1"/>
+    </row>
+    <row r="1436">
+      <c r="B1436" s="1"/>
+    </row>
+    <row r="1437">
+      <c r="B1437" s="1"/>
+    </row>
+    <row r="1438">
+      <c r="B1438" s="1"/>
+    </row>
+    <row r="1439">
+      <c r="B1439" s="1"/>
+    </row>
+    <row r="1440">
+      <c r="B1440" s="1"/>
+    </row>
+    <row r="1441">
+      <c r="B1441" s="1"/>
+    </row>
+    <row r="1442">
+      <c r="B1442" s="1"/>
+    </row>
+    <row r="1443">
+      <c r="B1443" s="1"/>
+    </row>
+    <row r="1444">
+      <c r="B1444" s="1"/>
+    </row>
+    <row r="1445">
+      <c r="B1445" s="1"/>
+    </row>
+    <row r="1446">
+      <c r="B1446" s="1"/>
+    </row>
+    <row r="1447">
+      <c r="B1447" s="1"/>
+    </row>
+    <row r="1448">
+      <c r="B1448" s="1"/>
+    </row>
+    <row r="1449">
+      <c r="B1449" s="1"/>
+    </row>
+    <row r="1450">
+      <c r="B1450" s="1"/>
+    </row>
+    <row r="1451">
+      <c r="B1451" s="1"/>
+    </row>
+    <row r="1452">
+      <c r="B1452" s="1"/>
+    </row>
+    <row r="1453">
+      <c r="B1453" s="1"/>
+    </row>
+    <row r="1454">
+      <c r="B1454" s="1"/>
+    </row>
+    <row r="1455">
+      <c r="B1455" s="1"/>
+    </row>
+    <row r="1456">
+      <c r="B1456" s="1"/>
+    </row>
+    <row r="1457">
+      <c r="B1457" s="1"/>
+    </row>
+    <row r="1458">
+      <c r="B1458" s="1"/>
+    </row>
+    <row r="1459">
+      <c r="B1459" s="1"/>
+    </row>
+    <row r="1460">
+      <c r="B1460" s="1"/>
+    </row>
+    <row r="1461">
+      <c r="B1461" s="1"/>
+    </row>
+    <row r="1462">
+      <c r="B1462" s="1"/>
+    </row>
+    <row r="1463">
+      <c r="B1463" s="1"/>
+    </row>
+    <row r="1464">
+      <c r="B1464" s="1"/>
+    </row>
+    <row r="1465">
+      <c r="B1465" s="1"/>
+    </row>
+    <row r="1466">
+      <c r="B1466" s="1"/>
+    </row>
+    <row r="1467">
+      <c r="B1467" s="1"/>
+    </row>
+    <row r="1468">
+      <c r="B1468" s="1"/>
+    </row>
+    <row r="1469">
+      <c r="B1469" s="1"/>
+    </row>
+    <row r="1470">
+      <c r="B1470" s="1"/>
+    </row>
+    <row r="1471">
+      <c r="B1471" s="1"/>
+    </row>
+    <row r="1472">
+      <c r="B1472" s="1"/>
+    </row>
+    <row r="1473">
+      <c r="B1473" s="1"/>
+    </row>
+    <row r="1474">
+      <c r="B1474" s="1"/>
+    </row>
+    <row r="1475">
+      <c r="B1475" s="1"/>
+    </row>
+    <row r="1476">
+      <c r="B1476" s="1"/>
+    </row>
+    <row r="1477">
+      <c r="B1477" s="1"/>
+    </row>
+    <row r="1478">
+      <c r="B1478" s="1"/>
+    </row>
+    <row r="1479">
+      <c r="B1479" s="1"/>
+    </row>
+    <row r="1480">
+      <c r="B1480" s="1"/>
+    </row>
+    <row r="1481">
+      <c r="B1481" s="1"/>
+    </row>
+    <row r="1482">
+      <c r="B1482" s="1"/>
+    </row>
+    <row r="1483">
+      <c r="B1483" s="1"/>
+    </row>
+    <row r="1484">
+      <c r="B1484" s="1"/>
+    </row>
+    <row r="1485">
+      <c r="B1485" s="1"/>
+    </row>
+    <row r="1486">
+      <c r="B1486" s="1"/>
+    </row>
+    <row r="1487">
+      <c r="B1487" s="1"/>
+    </row>
+    <row r="1488">
+      <c r="B1488" s="1"/>
+    </row>
+    <row r="1489">
+      <c r="B1489" s="1"/>
+    </row>
+    <row r="1490">
+      <c r="B1490" s="1"/>
+    </row>
+    <row r="1491">
+      <c r="B1491" s="1"/>
+    </row>
+    <row r="1492">
+      <c r="B1492" s="1"/>
+    </row>
+    <row r="1493">
+      <c r="B1493" s="1"/>
+    </row>
+    <row r="1494">
+      <c r="B1494" s="1"/>
+    </row>
+    <row r="1495">
+      <c r="B1495" s="1"/>
+    </row>
+    <row r="1496">
+      <c r="B1496" s="1"/>
+    </row>
+    <row r="1497">
+      <c r="B1497" s="1"/>
+    </row>
+    <row r="1498">
+      <c r="B1498" s="1"/>
+    </row>
+    <row r="1499">
+      <c r="B1499" s="1"/>
+    </row>
+    <row r="1500">
+      <c r="B1500" s="1"/>
+    </row>
+    <row r="1501">
+      <c r="B1501" s="1"/>
+    </row>
+    <row r="1502">
+      <c r="B1502" s="1"/>
+    </row>
+    <row r="1503">
+      <c r="B1503" s="1"/>
+    </row>
+    <row r="1504">
+      <c r="B1504" s="1"/>
+    </row>
+    <row r="1505">
+      <c r="B1505" s="1"/>
+    </row>
+    <row r="1506">
+      <c r="B1506" s="1"/>
+    </row>
+    <row r="1507">
+      <c r="B1507" s="1"/>
+    </row>
+    <row r="1508">
+      <c r="B1508" s="1"/>
+    </row>
+    <row r="1509">
+      <c r="B1509" s="1"/>
+    </row>
+    <row r="1510">
+      <c r="B1510" s="1"/>
+    </row>
+    <row r="1511">
+      <c r="B1511" s="1"/>
+    </row>
+    <row r="1512">
+      <c r="B1512" s="1"/>
+    </row>
+    <row r="1513">
+      <c r="B1513" s="1"/>
+    </row>
+    <row r="1514">
+      <c r="B1514" s="1"/>
+    </row>
+    <row r="1515">
+      <c r="B1515" s="1"/>
+    </row>
+    <row r="1516">
+      <c r="B1516" s="1"/>
+    </row>
+    <row r="1517">
+      <c r="B1517" s="1"/>
+    </row>
+    <row r="1518">
+      <c r="B1518" s="1"/>
+    </row>
+    <row r="1519">
+      <c r="B1519" s="1"/>
+    </row>
+    <row r="1520">
+      <c r="B1520" s="1"/>
+    </row>
+    <row r="1521">
+      <c r="B1521" s="1"/>
+    </row>
+    <row r="1522">
+      <c r="B1522" s="1"/>
+    </row>
+    <row r="1523">
+      <c r="B1523" s="1"/>
+    </row>
+    <row r="1524">
+      <c r="B1524" s="1"/>
+    </row>
+    <row r="1525">
+      <c r="B1525" s="1"/>
+    </row>
+    <row r="1526">
+      <c r="B1526" s="1"/>
+    </row>
+    <row r="1527">
+      <c r="B1527" s="1"/>
+    </row>
+    <row r="1528">
+      <c r="B1528" s="1"/>
+    </row>
+    <row r="1529">
+      <c r="B1529" s="1"/>
+    </row>
+    <row r="1530">
+      <c r="B1530" s="1"/>
+    </row>
+    <row r="1531">
+      <c r="B1531" s="1"/>
+    </row>
+    <row r="1532">
+      <c r="B1532" s="1"/>
+    </row>
+    <row r="1533">
+      <c r="B1533" s="1"/>
+    </row>
+    <row r="1534">
+      <c r="B1534" s="1"/>
+    </row>
+    <row r="1535">
+      <c r="B1535" s="1"/>
+    </row>
+    <row r="1536">
+      <c r="B1536" s="1"/>
+    </row>
+    <row r="1537">
+      <c r="B1537" s="1"/>
+    </row>
+    <row r="1538">
+      <c r="B1538" s="1"/>
+    </row>
+    <row r="1539">
+      <c r="B1539" s="1"/>
+    </row>
+    <row r="1540">
+      <c r="B1540" s="1"/>
+    </row>
+    <row r="1541">
+      <c r="B1541" s="1"/>
+    </row>
+    <row r="1542">
+      <c r="B1542" s="1"/>
+    </row>
+    <row r="1543">
+      <c r="B1543" s="1"/>
+    </row>
+    <row r="1544">
+      <c r="B1544" s="1"/>
+    </row>
+    <row r="1545">
+      <c r="B1545" s="1"/>
+    </row>
+    <row r="1546">
+      <c r="B1546" s="1"/>
+    </row>
+    <row r="1547">
+      <c r="B1547" s="1"/>
+    </row>
+    <row r="1548">
+      <c r="B1548" s="1"/>
+    </row>
+    <row r="1549">
+      <c r="B1549" s="1"/>
+    </row>
+    <row r="1550">
+      <c r="B1550" s="1"/>
+    </row>
+    <row r="1551">
+      <c r="B1551" s="1"/>
+    </row>
+    <row r="1552">
+      <c r="B1552" s="1"/>
+    </row>
+    <row r="1553">
+      <c r="B1553" s="1"/>
+    </row>
+    <row r="1554">
+      <c r="B1554" s="1"/>
+    </row>
+    <row r="1555">
+      <c r="B1555" s="1"/>
+    </row>
+    <row r="1556">
+      <c r="B1556" s="1"/>
+    </row>
+    <row r="1557">
+      <c r="B1557" s="1"/>
+    </row>
+    <row r="1558">
+      <c r="B1558" s="1"/>
+    </row>
+    <row r="1559">
+      <c r="B1559" s="1"/>
+    </row>
+    <row r="1560">
+      <c r="B1560" s="1"/>
+    </row>
+    <row r="1561">
+      <c r="B1561" s="1"/>
+    </row>
+    <row r="1562">
+      <c r="B1562" s="1"/>
+    </row>
+    <row r="1563">
+      <c r="B1563" s="1"/>
+    </row>
+    <row r="1564">
+      <c r="B1564" s="1"/>
+    </row>
+    <row r="1565">
+      <c r="B1565" s="1"/>
+    </row>
+    <row r="1566">
+      <c r="B1566" s="1"/>
+    </row>
+    <row r="1567">
+      <c r="B1567" s="1"/>
+    </row>
+    <row r="1568">
+      <c r="B1568" s="1"/>
+    </row>
+    <row r="1569">
+      <c r="B1569" s="1"/>
+    </row>
+    <row r="1570">
+      <c r="B1570" s="1"/>
+    </row>
+    <row r="1571">
+      <c r="B1571" s="1"/>
+    </row>
+    <row r="1572">
+      <c r="B1572" s="1"/>
+    </row>
+    <row r="1573">
+      <c r="B1573" s="1"/>
+    </row>
+    <row r="1574">
+      <c r="B1574" s="1"/>
+    </row>
+    <row r="1575">
+      <c r="B1575" s="1"/>
+    </row>
+    <row r="1576">
+      <c r="B1576" s="1"/>
+    </row>
+    <row r="1577">
+      <c r="B1577" s="1"/>
+    </row>
+    <row r="1578">
+      <c r="B1578" s="1"/>
+    </row>
+    <row r="1579">
+      <c r="B1579" s="1"/>
+    </row>
+    <row r="1580">
+      <c r="B1580" s="1"/>
+    </row>
+    <row r="1581">
+      <c r="B1581" s="1"/>
+    </row>
+    <row r="1582">
+      <c r="B1582" s="1"/>
+    </row>
+    <row r="1583">
+      <c r="B1583" s="1"/>
+    </row>
+    <row r="1584">
+      <c r="B1584" s="1"/>
+    </row>
+    <row r="1585">
+      <c r="B1585" s="1"/>
+    </row>
+    <row r="1586">
+      <c r="B1586" s="1"/>
+    </row>
+    <row r="1587">
+      <c r="B1587" s="1"/>
+    </row>
+    <row r="1588">
+      <c r="B1588" s="1"/>
+    </row>
+    <row r="1589">
+      <c r="B1589" s="1"/>
+    </row>
+    <row r="1590">
+      <c r="B1590" s="1"/>
+    </row>
+    <row r="1591">
+      <c r="B1591" s="1"/>
+    </row>
+    <row r="1592">
+      <c r="B1592" s="1"/>
+    </row>
+    <row r="1593">
+      <c r="B1593" s="1"/>
+    </row>
+    <row r="1594">
+      <c r="B1594" s="1"/>
+    </row>
+    <row r="1595">
+      <c r="B1595" s="1"/>
+    </row>
+    <row r="1596">
+      <c r="B1596" s="1"/>
+    </row>
+    <row r="1597">
+      <c r="B1597" s="1"/>
+    </row>
+    <row r="1598">
+      <c r="B1598" s="1"/>
+    </row>
+    <row r="1599">
+      <c r="B1599" s="1"/>
+    </row>
+    <row r="1600">
+      <c r="B1600" s="1"/>
+    </row>
+    <row r="1601">
+      <c r="B1601" s="1"/>
+    </row>
+    <row r="1602">
+      <c r="B1602" s="1"/>
+    </row>
+    <row r="1603">
+      <c r="B1603" s="1"/>
+    </row>
+    <row r="1604">
+      <c r="B1604" s="1"/>
+    </row>
+    <row r="1605">
+      <c r="B1605" s="1"/>
+    </row>
+    <row r="1606">
+      <c r="B1606" s="1"/>
+    </row>
+    <row r="1607">
+      <c r="B1607" s="1"/>
+    </row>
+    <row r="1608">
+      <c r="B1608" s="1"/>
+    </row>
+    <row r="1609">
+      <c r="B1609" s="1"/>
+    </row>
+    <row r="1610">
+      <c r="B1610" s="1"/>
+    </row>
+    <row r="1611">
+      <c r="B1611" s="1"/>
+    </row>
+    <row r="1612">
+      <c r="B1612" s="1"/>
+    </row>
+    <row r="1613">
+      <c r="B1613" s="1"/>
+    </row>
+    <row r="1614">
+      <c r="B1614" s="1"/>
+    </row>
+    <row r="1615">
+      <c r="B1615" s="1"/>
+    </row>
+    <row r="1616">
+      <c r="B1616" s="1"/>
+    </row>
+    <row r="1617">
+      <c r="B1617" s="1"/>
+    </row>
+    <row r="1618">
+      <c r="B1618" s="1"/>
+    </row>
+    <row r="1619">
+      <c r="B1619" s="1"/>
+    </row>
+    <row r="1620">
+      <c r="B1620" s="1"/>
+    </row>
+    <row r="1621">
+      <c r="B1621" s="1"/>
+    </row>
+    <row r="1622">
+      <c r="B1622" s="1"/>
+    </row>
+    <row r="1623">
+      <c r="B1623" s="1"/>
+    </row>
+    <row r="1624">
+      <c r="B1624" s="1"/>
+    </row>
+    <row r="1625">
+      <c r="B1625" s="1"/>
+    </row>
+    <row r="1626">
+      <c r="B1626" s="1"/>
+    </row>
+    <row r="1627">
+      <c r="B1627" s="1"/>
+    </row>
+    <row r="1628">
+      <c r="B1628" s="1"/>
+    </row>
+    <row r="1629">
+      <c r="B1629" s="1"/>
+    </row>
+    <row r="1630">
+      <c r="B1630" s="1"/>
+    </row>
+    <row r="1631">
+      <c r="B1631" s="1"/>
+    </row>
+    <row r="1632">
+      <c r="B1632" s="1"/>
+    </row>
+    <row r="1633">
+      <c r="B1633" s="1"/>
+    </row>
+    <row r="1634">
+      <c r="B1634" s="1"/>
+    </row>
+    <row r="1635">
+      <c r="B1635" s="1"/>
+    </row>
+    <row r="1636">
+      <c r="B1636" s="1"/>
+    </row>
+    <row r="1637">
+      <c r="B1637" s="1"/>
+    </row>
+    <row r="1638">
+      <c r="B1638" s="1"/>
+    </row>
+    <row r="1639">
+      <c r="B1639" s="1"/>
+    </row>
+    <row r="1640">
+      <c r="B1640" s="1"/>
+    </row>
+    <row r="1641">
+      <c r="B1641" s="1"/>
+    </row>
+    <row r="1642">
+      <c r="B1642" s="1"/>
+    </row>
+    <row r="1643">
+      <c r="B1643" s="1"/>
+    </row>
+    <row r="1644">
+      <c r="B1644" s="1"/>
+    </row>
+    <row r="1645">
+      <c r="B1645" s="1"/>
+    </row>
+    <row r="1646">
+      <c r="B1646" s="1"/>
+    </row>
+    <row r="1647">
+      <c r="B1647" s="1"/>
+    </row>
+    <row r="1648">
+      <c r="B1648" s="1"/>
+    </row>
+    <row r="1649">
+      <c r="B1649" s="1"/>
+    </row>
+    <row r="1650">
+      <c r="B1650" s="1"/>
+    </row>
+    <row r="1651">
+      <c r="B1651" s="1"/>
+    </row>
+    <row r="1652">
+      <c r="B1652" s="1"/>
+    </row>
+    <row r="1653">
+      <c r="B1653" s="1"/>
+    </row>
+    <row r="1654">
+      <c r="B1654" s="1"/>
+    </row>
+    <row r="1655">
+      <c r="B1655" s="1"/>
+    </row>
+    <row r="1656">
+      <c r="B1656" s="1"/>
+    </row>
+    <row r="1657">
+      <c r="B1657" s="1"/>
+    </row>
+    <row r="1658">
+      <c r="B1658" s="1"/>
+    </row>
+    <row r="1659">
+      <c r="B1659" s="1"/>
+    </row>
+    <row r="1660">
+      <c r="B1660" s="1"/>
+    </row>
+    <row r="1661">
+      <c r="B1661" s="1"/>
+    </row>
+    <row r="1662">
+      <c r="B1662" s="1"/>
+    </row>
+    <row r="1663">
+      <c r="B1663" s="1"/>
+    </row>
+    <row r="1664">
+      <c r="B1664" s="1"/>
+    </row>
+    <row r="1665">
+      <c r="B1665" s="1"/>
+    </row>
+    <row r="1666">
+      <c r="B1666" s="1"/>
+    </row>
+    <row r="1667">
+      <c r="B1667" s="1"/>
+    </row>
+    <row r="1668">
+      <c r="B1668" s="1"/>
+    </row>
+    <row r="1669">
+      <c r="B1669" s="1"/>
+    </row>
+    <row r="1670">
+      <c r="B1670" s="1"/>
+    </row>
+    <row r="1671">
+      <c r="B1671" s="1"/>
+    </row>
+    <row r="1672">
+      <c r="B1672" s="1"/>
+    </row>
+    <row r="1673">
+      <c r="B1673" s="1"/>
+    </row>
+    <row r="1674">
+      <c r="B1674" s="1"/>
+    </row>
+    <row r="1675">
+      <c r="B1675" s="1"/>
+    </row>
+    <row r="1676">
+      <c r="B1676" s="1"/>
+    </row>
+    <row r="1677">
+      <c r="B1677" s="1"/>
+    </row>
+    <row r="1678">
+      <c r="B1678" s="1"/>
+    </row>
+    <row r="1679">
+      <c r="B1679" s="1"/>
+    </row>
+    <row r="1680">
+      <c r="B1680" s="1"/>
+    </row>
+    <row r="1681">
+      <c r="B1681" s="1"/>
+    </row>
+    <row r="1682">
+      <c r="B1682" s="1"/>
+    </row>
+    <row r="1683">
+      <c r="B1683" s="1"/>
+    </row>
+    <row r="1684">
+      <c r="B1684" s="1"/>
+    </row>
+    <row r="1685">
+      <c r="B1685" s="1"/>
+    </row>
+    <row r="1686">
+      <c r="B1686" s="1"/>
+    </row>
+    <row r="1687">
+      <c r="B1687" s="1"/>
+    </row>
+    <row r="1688">
+      <c r="B1688" s="1"/>
+    </row>
+    <row r="1689">
+      <c r="B1689" s="1"/>
+    </row>
+    <row r="1690">
+      <c r="B1690" s="1"/>
+    </row>
+    <row r="1691">
+      <c r="B1691" s="1"/>
+    </row>
+    <row r="1692">
+      <c r="B1692" s="1"/>
+    </row>
+    <row r="1693">
+      <c r="B1693" s="1"/>
+    </row>
+    <row r="1694">
+      <c r="B1694" s="1"/>
+    </row>
+    <row r="1695">
+      <c r="B1695" s="1"/>
+    </row>
+    <row r="1696">
+      <c r="B1696" s="1"/>
+    </row>
+    <row r="1697">
+      <c r="B1697" s="1"/>
+    </row>
+    <row r="1698">
+      <c r="B1698" s="1"/>
+    </row>
+    <row r="1699">
+      <c r="B1699" s="1"/>
+    </row>
+    <row r="1700">
+      <c r="B1700" s="1"/>
+    </row>
+    <row r="1701">
+      <c r="B1701" s="1"/>
+    </row>
+    <row r="1702">
+      <c r="B1702" s="1"/>
+    </row>
+    <row r="1703">
+      <c r="B1703" s="1"/>
+    </row>
+    <row r="1704">
+      <c r="B1704" s="1"/>
+    </row>
+    <row r="1705">
+      <c r="B1705" s="1"/>
+    </row>
+    <row r="1706">
+      <c r="B1706" s="1"/>
+    </row>
+    <row r="1707">
+      <c r="B1707" s="1"/>
+    </row>
+    <row r="1708">
+      <c r="B1708" s="1"/>
+    </row>
+    <row r="1709">
+      <c r="B1709" s="1"/>
+    </row>
+    <row r="1710">
+      <c r="B1710" s="1"/>
+    </row>
+    <row r="1711">
+      <c r="B1711" s="1"/>
+    </row>
+    <row r="1712">
+      <c r="B1712" s="1"/>
+    </row>
+    <row r="1713">
+      <c r="B1713" s="1"/>
+    </row>
+    <row r="1714">
+      <c r="B1714" s="1"/>
+    </row>
+    <row r="1715">
+      <c r="B1715" s="1"/>
+    </row>
+    <row r="1716">
+      <c r="B1716" s="1"/>
+    </row>
+    <row r="1717">
+      <c r="B1717" s="1"/>
+    </row>
+    <row r="1718">
+      <c r="B1718" s="1"/>
+    </row>
+    <row r="1719">
+      <c r="B1719" s="1"/>
+    </row>
+    <row r="1720">
+      <c r="B1720" s="1"/>
+    </row>
+    <row r="1721">
+      <c r="B1721" s="1"/>
+    </row>
+    <row r="1722">
+      <c r="B1722" s="1"/>
+    </row>
+    <row r="1723">
+      <c r="B1723" s="1"/>
+    </row>
+    <row r="1724">
+      <c r="B1724" s="1"/>
+    </row>
+    <row r="1725">
+      <c r="B1725" s="1"/>
+    </row>
+    <row r="1726">
+      <c r="B1726" s="1"/>
+    </row>
+    <row r="1727">
+      <c r="B1727" s="1"/>
+    </row>
+    <row r="1728">
+      <c r="B1728" s="1"/>
+    </row>
+    <row r="1729">
+      <c r="B1729" s="1"/>
+    </row>
+    <row r="1730">
+      <c r="B1730" s="1"/>
+    </row>
+    <row r="1731">
+      <c r="B1731" s="1"/>
+    </row>
+    <row r="1732">
+      <c r="B1732" s="1"/>
+    </row>
+    <row r="1733">
+      <c r="B1733" s="1"/>
+    </row>
+    <row r="1734">
+      <c r="B1734" s="1"/>
+    </row>
+    <row r="1735">
+      <c r="B1735" s="1"/>
+    </row>
+    <row r="1736">
+      <c r="B1736" s="1"/>
+    </row>
+    <row r="1737">
+      <c r="B1737" s="1"/>
+    </row>
+    <row r="1738">
+      <c r="B1738" s="1"/>
+    </row>
+    <row r="1739">
+      <c r="B1739" s="1"/>
+    </row>
+    <row r="1740">
+      <c r="B1740" s="1"/>
+    </row>
+    <row r="1741">
+      <c r="B1741" s="1"/>
+    </row>
+    <row r="1742">
+      <c r="B1742" s="1"/>
+    </row>
+    <row r="1743">
+      <c r="B1743" s="1"/>
+    </row>
+    <row r="1744">
+      <c r="B1744" s="1"/>
+    </row>
+    <row r="1745">
+      <c r="B1745" s="1"/>
+    </row>
+    <row r="1746">
+      <c r="B1746" s="1"/>
+    </row>
+    <row r="1747">
+      <c r="B1747" s="1"/>
+    </row>
+    <row r="1748">
+      <c r="B1748" s="1"/>
+    </row>
+    <row r="1749">
+      <c r="B1749" s="1"/>
+    </row>
+    <row r="1750">
+      <c r="B1750" s="1"/>
+    </row>
+    <row r="1751">
+      <c r="B1751" s="1"/>
+    </row>
+    <row r="1752">
+      <c r="B1752" s="1"/>
+    </row>
+    <row r="1753">
+      <c r="B1753" s="1"/>
+    </row>
+    <row r="1754">
+      <c r="B1754" s="1"/>
+    </row>
+    <row r="1755">
+      <c r="B1755" s="1"/>
+    </row>
+    <row r="1756">
+      <c r="B1756" s="1"/>
+    </row>
+    <row r="1757">
+      <c r="B1757" s="1"/>
+    </row>
+    <row r="1758">
+      <c r="B1758" s="1"/>
+    </row>
+    <row r="1759">
+      <c r="B1759" s="1"/>
+    </row>
+    <row r="1760">
+      <c r="B1760" s="1"/>
+    </row>
+    <row r="1761">
+      <c r="B1761" s="1"/>
+    </row>
+    <row r="1762">
+      <c r="B1762" s="1"/>
+    </row>
+    <row r="1763">
+      <c r="B1763" s="1"/>
+    </row>
+    <row r="1764">
+      <c r="B1764" s="1"/>
+    </row>
+    <row r="1765">
+      <c r="B1765" s="1"/>
+    </row>
+    <row r="1766">
+      <c r="B1766" s="1"/>
+    </row>
+    <row r="1767">
+      <c r="B1767" s="1"/>
+    </row>
+    <row r="1768">
+      <c r="B1768" s="1"/>
+    </row>
+    <row r="1769">
+      <c r="B1769" s="1"/>
+    </row>
+    <row r="1770">
+      <c r="B1770" s="1"/>
+    </row>
+    <row r="1771">
+      <c r="B1771" s="1"/>
+    </row>
+    <row r="1772">
+      <c r="B1772" s="1"/>
+    </row>
+    <row r="1773">
+      <c r="B1773" s="1"/>
+    </row>
+    <row r="1774">
+      <c r="B1774" s="1"/>
+    </row>
+    <row r="1775">
+      <c r="B1775" s="1"/>
+    </row>
+    <row r="1776">
+      <c r="B1776" s="1"/>
+    </row>
+    <row r="1777">
+      <c r="B1777" s="1"/>
+    </row>
+    <row r="1778">
+      <c r="B1778" s="1"/>
+    </row>
+    <row r="1779">
+      <c r="B1779" s="1"/>
+    </row>
+    <row r="1780">
+      <c r="B1780" s="1"/>
+    </row>
+    <row r="1781">
+      <c r="B1781" s="1"/>
+    </row>
+    <row r="1782">
+      <c r="B1782" s="1"/>
+    </row>
+    <row r="1783">
+      <c r="B1783" s="1"/>
+    </row>
+    <row r="1784">
+      <c r="B1784" s="1"/>
+    </row>
+    <row r="1785">
+      <c r="B1785" s="1"/>
+    </row>
+    <row r="1786">
+      <c r="B1786" s="1"/>
+    </row>
+    <row r="1787">
+      <c r="B1787" s="1"/>
+    </row>
+    <row r="1788">
+      <c r="B1788" s="1"/>
+    </row>
+    <row r="1789">
+      <c r="B1789" s="1"/>
+    </row>
+    <row r="1790">
+      <c r="B1790" s="1"/>
+    </row>
+    <row r="1791">
+      <c r="B1791" s="1"/>
+    </row>
+    <row r="1792">
+      <c r="B1792" s="1"/>
+    </row>
+    <row r="1793">
+      <c r="B1793" s="1"/>
+    </row>
+    <row r="1794">
+      <c r="B1794" s="1"/>
+    </row>
+    <row r="1795">
+      <c r="B1795" s="1"/>
+    </row>
+    <row r="1796">
+      <c r="B1796" s="1"/>
+    </row>
+    <row r="1797">
+      <c r="B1797" s="1"/>
+    </row>
+    <row r="1798">
+      <c r="B1798" s="1"/>
+    </row>
+    <row r="1799">
+      <c r="B1799" s="1"/>
+    </row>
+    <row r="1800">
+      <c r="B1800" s="1"/>
+    </row>
+    <row r="1801">
+      <c r="B1801" s="1"/>
+    </row>
+    <row r="1802">
+      <c r="B1802" s="1"/>
+    </row>
+    <row r="1803">
+      <c r="B1803" s="1"/>
+    </row>
+    <row r="1804">
+      <c r="B1804" s="1"/>
+    </row>
+    <row r="1805">
+      <c r="B1805" s="1"/>
+    </row>
+    <row r="1806">
+      <c r="B1806" s="1"/>
+    </row>
+    <row r="1807">
+      <c r="B1807" s="1"/>
+    </row>
+    <row r="1808">
+      <c r="B1808" s="1"/>
+    </row>
+    <row r="1809">
+      <c r="B1809" s="1"/>
+    </row>
+    <row r="1810">
+      <c r="B1810" s="1"/>
+    </row>
+    <row r="1811">
+      <c r="B1811" s="1"/>
+    </row>
+    <row r="1812">
+      <c r="B1812" s="1"/>
+    </row>
+    <row r="1813">
+      <c r="B1813" s="1"/>
+    </row>
+    <row r="1814">
+      <c r="B1814" s="1"/>
+    </row>
+    <row r="1815">
+      <c r="B1815" s="1"/>
+    </row>
+    <row r="1816">
+      <c r="B1816" s="1"/>
+    </row>
+    <row r="1817">
+      <c r="B1817" s="1"/>
+    </row>
+    <row r="1818">
+      <c r="B1818" s="1"/>
+    </row>
+    <row r="1819">
+      <c r="B1819" s="1"/>
+    </row>
+    <row r="1820">
+      <c r="B1820" s="1"/>
+    </row>
+    <row r="1821">
+      <c r="B1821" s="1"/>
+    </row>
+    <row r="1822">
+      <c r="B1822" s="1"/>
+    </row>
+    <row r="1823">
+      <c r="B1823" s="1"/>
+    </row>
+    <row r="1824">
+      <c r="B1824" s="1"/>
+    </row>
+    <row r="1825">
+      <c r="B1825" s="1"/>
+    </row>
+    <row r="1826">
+      <c r="B1826" s="1"/>
+    </row>
+    <row r="1827">
+      <c r="B1827" s="1"/>
+    </row>
+    <row r="1828">
+      <c r="B1828" s="1"/>
+    </row>
+    <row r="1829">
+      <c r="B1829" s="1"/>
+    </row>
+    <row r="1830">
+      <c r="B1830" s="1"/>
+    </row>
+    <row r="1831">
+      <c r="B1831" s="1"/>
+    </row>
+    <row r="1832">
+      <c r="B1832" s="1"/>
+    </row>
+    <row r="1833">
+      <c r="B1833" s="1"/>
+    </row>
+    <row r="1834">
+      <c r="B1834" s="1"/>
+    </row>
+    <row r="1835">
+      <c r="B1835" s="1"/>
+    </row>
+    <row r="1836">
+      <c r="B1836" s="1"/>
+    </row>
+    <row r="1837">
+      <c r="B1837" s="1"/>
+    </row>
+    <row r="1838">
+      <c r="B1838" s="1"/>
+    </row>
+    <row r="1839">
+      <c r="B1839" s="1"/>
+    </row>
+    <row r="1840">
+      <c r="B1840" s="1"/>
+    </row>
+    <row r="1841">
+      <c r="B1841" s="1"/>
+    </row>
+    <row r="1842">
+      <c r="B1842" s="1"/>
+    </row>
+    <row r="1843">
+      <c r="B1843" s="1"/>
+    </row>
+    <row r="1844">
+      <c r="B1844" s="1"/>
+    </row>
+    <row r="1845">
+      <c r="B1845" s="1"/>
+    </row>
+    <row r="1846">
+      <c r="B1846" s="1"/>
+    </row>
+    <row r="1847">
+      <c r="B1847" s="1"/>
+    </row>
+    <row r="1848">
+      <c r="B1848" s="1"/>
+    </row>
+    <row r="1849">
+      <c r="B1849" s="1"/>
+    </row>
+    <row r="1850">
+      <c r="B1850" s="1"/>
+    </row>
+    <row r="1851">
+      <c r="B1851" s="1"/>
+    </row>
+    <row r="1852">
+      <c r="B1852" s="1"/>
+    </row>
+    <row r="1853">
+      <c r="B1853" s="1"/>
+    </row>
+    <row r="1854">
+      <c r="B1854" s="1"/>
+    </row>
+    <row r="1855">
+      <c r="B1855" s="1"/>
+    </row>
+    <row r="1856">
+      <c r="B1856" s="1"/>
+    </row>
+    <row r="1857">
+      <c r="B1857" s="1"/>
+    </row>
+    <row r="1858">
+      <c r="B1858" s="1"/>
+    </row>
+    <row r="1859">
+      <c r="B1859" s="1"/>
+    </row>
+    <row r="1860">
+      <c r="B1860" s="1"/>
+    </row>
+    <row r="1861">
+      <c r="B1861" s="1"/>
+    </row>
+    <row r="1862">
+      <c r="B1862" s="1"/>
+    </row>
+    <row r="1863">
+      <c r="B1863" s="1"/>
+    </row>
+    <row r="1864">
+      <c r="B1864" s="1"/>
+    </row>
+    <row r="1865">
+      <c r="B1865" s="1"/>
+    </row>
+    <row r="1866">
+      <c r="B1866" s="1"/>
+    </row>
+    <row r="1867">
+      <c r="B1867" s="1"/>
+    </row>
+    <row r="1868">
+      <c r="B1868" s="1"/>
+    </row>
+    <row r="1869">
+      <c r="B1869" s="1"/>
+    </row>
+    <row r="1870">
+      <c r="B1870" s="1"/>
+    </row>
+    <row r="1871">
+      <c r="B1871" s="1"/>
+    </row>
+    <row r="1872">
+      <c r="B1872" s="1"/>
+    </row>
+    <row r="1873">
+      <c r="B1873" s="1"/>
+    </row>
+    <row r="1874">
+      <c r="B1874" s="1"/>
+    </row>
+    <row r="1875">
+      <c r="B1875" s="1"/>
+    </row>
+    <row r="1876">
+      <c r="B1876" s="1"/>
+    </row>
+    <row r="1877">
+      <c r="B1877" s="1"/>
+    </row>
+    <row r="1878">
+      <c r="B1878" s="1"/>
+    </row>
+    <row r="1879">
+      <c r="B1879" s="1"/>
+    </row>
+    <row r="1880">
+      <c r="B1880" s="1"/>
+    </row>
+    <row r="1881">
+      <c r="B1881" s="1"/>
+    </row>
+    <row r="1882">
+      <c r="B1882" s="1"/>
+    </row>
+    <row r="1883">
+      <c r="B1883" s="1"/>
+    </row>
+    <row r="1884">
+      <c r="B1884" s="1"/>
+    </row>
+    <row r="1885">
+      <c r="B1885" s="1"/>
+    </row>
+    <row r="1886">
+      <c r="B1886" s="1"/>
+    </row>
+    <row r="1887">
+      <c r="B1887" s="1"/>
+    </row>
+    <row r="1888">
+      <c r="B1888" s="1"/>
+    </row>
+    <row r="1889">
+      <c r="B1889" s="1"/>
+    </row>
+    <row r="1890">
+      <c r="B1890" s="1"/>
+    </row>
+    <row r="1891">
+      <c r="B1891" s="1"/>
+    </row>
+    <row r="1892">
+      <c r="B1892" s="1"/>
+    </row>
+    <row r="1893">
+      <c r="B1893" s="1"/>
+    </row>
+    <row r="1894">
+      <c r="B1894" s="1"/>
+    </row>
+    <row r="1895">
+      <c r="B1895" s="1"/>
+    </row>
+    <row r="1896">
+      <c r="B1896" s="1"/>
+    </row>
+    <row r="1897">
+      <c r="B1897" s="1"/>
+    </row>
+    <row r="1898">
+      <c r="B1898" s="1"/>
+    </row>
+    <row r="1899">
+      <c r="B1899" s="1"/>
+    </row>
+    <row r="1900">
+      <c r="B1900" s="1"/>
+    </row>
+    <row r="1901">
+      <c r="B1901" s="1"/>
+    </row>
+    <row r="1902">
+      <c r="B1902" s="1"/>
+    </row>
+    <row r="1903">
+      <c r="B1903" s="1"/>
+    </row>
+    <row r="1904">
+      <c r="B1904" s="1"/>
+    </row>
+    <row r="1905">
+      <c r="B1905" s="1"/>
+    </row>
+    <row r="1906">
+      <c r="B1906" s="1"/>
+    </row>
+    <row r="1907">
+      <c r="B1907" s="1"/>
+    </row>
+    <row r="1908">
+      <c r="B1908" s="1"/>
+    </row>
+    <row r="1909">
+      <c r="B1909" s="1"/>
+    </row>
+    <row r="1910">
+      <c r="B1910" s="1"/>
+    </row>
+    <row r="1911">
+      <c r="B1911" s="1"/>
+    </row>
+    <row r="1912">
+      <c r="B1912" s="1"/>
+    </row>
+    <row r="1913">
+      <c r="B1913" s="1"/>
+    </row>
+    <row r="1914">
+      <c r="B1914" s="1"/>
+    </row>
+    <row r="1915">
+      <c r="B1915" s="1"/>
+    </row>
+    <row r="1916">
+      <c r="B1916" s="1"/>
+    </row>
+    <row r="1917">
+      <c r="B1917" s="1"/>
+    </row>
+    <row r="1918">
+      <c r="B1918" s="1"/>
+    </row>
+    <row r="1919">
+      <c r="B1919" s="1"/>
+    </row>
+    <row r="1920">
+      <c r="B1920" s="1"/>
+    </row>
+    <row r="1921">
+      <c r="B1921" s="1"/>
+    </row>
+    <row r="1922">
+      <c r="B1922" s="1"/>
+    </row>
+    <row r="1923">
+      <c r="B1923" s="1"/>
+    </row>
+    <row r="1924">
+      <c r="B1924" s="1"/>
+    </row>
+    <row r="1925">
+      <c r="B1925" s="1"/>
+    </row>
+    <row r="1926">
+      <c r="B1926" s="1"/>
+    </row>
+    <row r="1927">
+      <c r="B1927" s="1"/>
+    </row>
+    <row r="1928">
+      <c r="B1928" s="1"/>
+    </row>
+    <row r="1929">
+      <c r="B1929" s="1"/>
+    </row>
+    <row r="1930">
+      <c r="B1930" s="1"/>
+    </row>
+    <row r="1931">
+      <c r="B1931" s="1"/>
+    </row>
+    <row r="1932">
+      <c r="B1932" s="1"/>
+    </row>
+    <row r="1933">
+      <c r="B1933" s="1"/>
+    </row>
+    <row r="1934">
+      <c r="B1934" s="1"/>
+    </row>
+    <row r="1935">
+      <c r="B1935" s="1"/>
+    </row>
+    <row r="1936">
+      <c r="B1936" s="1"/>
+    </row>
+    <row r="1937">
+      <c r="B1937" s="1"/>
+    </row>
+    <row r="1938">
+      <c r="B1938" s="1"/>
+    </row>
+    <row r="1939">
+      <c r="B1939" s="1"/>
+    </row>
+    <row r="1940">
+      <c r="B1940" s="1"/>
+    </row>
+    <row r="1941">
+      <c r="B1941" s="1"/>
+    </row>
+    <row r="1942">
+      <c r="B1942" s="1"/>
+    </row>
+    <row r="1943">
+      <c r="B1943" s="1"/>
+    </row>
+    <row r="1944">
+      <c r="B1944" s="1"/>
+    </row>
+    <row r="1945">
+      <c r="B1945" s="1"/>
+    </row>
+    <row r="1946">
+      <c r="B1946" s="1"/>
+    </row>
+    <row r="1947">
+      <c r="B1947" s="1"/>
+    </row>
+    <row r="1948">
+      <c r="B1948" s="1"/>
+    </row>
+    <row r="1949">
+      <c r="B1949" s="1"/>
+    </row>
+    <row r="1950">
+      <c r="B1950" s="1"/>
+    </row>
+    <row r="1951">
+      <c r="B1951" s="1"/>
+    </row>
+    <row r="1952">
+      <c r="B1952" s="1"/>
+    </row>
+    <row r="1953">
+      <c r="B1953" s="1"/>
+    </row>
+    <row r="1954">
+      <c r="B1954" s="1"/>
+    </row>
+    <row r="1955">
+      <c r="B1955" s="1"/>
+    </row>
+    <row r="1956">
+      <c r="B1956" s="1"/>
+    </row>
+    <row r="1957">
+      <c r="B1957" s="1"/>
+    </row>
+    <row r="1958">
+      <c r="B1958" s="1"/>
+    </row>
+    <row r="1959">
+      <c r="B1959" s="1"/>
+    </row>
+    <row r="1960">
+      <c r="B1960" s="1"/>
+    </row>
+    <row r="1961">
+      <c r="B1961" s="1"/>
+    </row>
+    <row r="1962">
+      <c r="B1962" s="1"/>
+    </row>
+    <row r="1963">
+      <c r="B1963" s="1"/>
+    </row>
+    <row r="1964">
+      <c r="B1964" s="1"/>
+    </row>
+    <row r="1965">
+      <c r="B1965" s="1"/>
+    </row>
+    <row r="1966">
+      <c r="B1966" s="1"/>
+    </row>
+    <row r="1967">
+      <c r="B1967" s="1"/>
+    </row>
+    <row r="1968">
+      <c r="B1968" s="1"/>
+    </row>
+    <row r="1969">
+      <c r="B1969" s="1"/>
+    </row>
+    <row r="1970">
+      <c r="B1970" s="1"/>
+    </row>
+    <row r="1971">
+      <c r="B1971" s="1"/>
+    </row>
+    <row r="1972">
+      <c r="B1972" s="1"/>
+    </row>
+    <row r="1973">
+      <c r="B1973" s="1"/>
+    </row>
+    <row r="1974">
+      <c r="B1974" s="1"/>
+    </row>
+    <row r="1975">
+      <c r="B1975" s="1"/>
+    </row>
+    <row r="1976">
+      <c r="B1976" s="1"/>
+    </row>
+    <row r="1977">
+      <c r="B1977" s="1"/>
+    </row>
+    <row r="1978">
+      <c r="B1978" s="1"/>
+    </row>
+    <row r="1979">
+      <c r="B1979" s="1"/>
+    </row>
+    <row r="1980">
+      <c r="B1980" s="1"/>
+    </row>
+    <row r="1981">
+      <c r="B1981" s="1"/>
+    </row>
+    <row r="1982">
+      <c r="B1982" s="1"/>
+    </row>
+    <row r="1983">
+      <c r="B1983" s="1"/>
+    </row>
+    <row r="1984">
+      <c r="B1984" s="1"/>
+    </row>
+    <row r="1985">
+      <c r="B1985" s="1"/>
+    </row>
+    <row r="1986">
+      <c r="B1986" s="1"/>
+    </row>
+    <row r="1987">
+      <c r="B1987" s="1"/>
+    </row>
+    <row r="1988">
+      <c r="B1988" s="1"/>
+    </row>
+    <row r="1989">
+      <c r="B1989" s="1"/>
+    </row>
+    <row r="1990">
+      <c r="B1990" s="1"/>
+    </row>
+    <row r="1991">
+      <c r="B1991" s="1"/>
+    </row>
+    <row r="1992">
+      <c r="B1992" s="1"/>
+    </row>
+    <row r="1993">
+      <c r="B1993" s="1"/>
+    </row>
+    <row r="1994">
+      <c r="B1994" s="1"/>
+    </row>
+    <row r="1995">
+      <c r="B1995" s="1"/>
+    </row>
+    <row r="1996">
+      <c r="B1996" s="1"/>
+    </row>
+    <row r="1997">
+      <c r="B1997" s="1"/>
+    </row>
+    <row r="1998">
+      <c r="B1998" s="1"/>
+    </row>
+    <row r="1999">
+      <c r="B1999" s="1"/>
+    </row>
+    <row r="2000">
+      <c r="B2000" s="1"/>
+    </row>
+    <row r="2001">
+      <c r="B2001" s="1"/>
+    </row>
+    <row r="2002">
+      <c r="B2002" s="1"/>
+    </row>
+    <row r="2003">
+      <c r="B2003" s="1"/>
+    </row>
+    <row r="2004">
+      <c r="B2004" s="1"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="58">
   <si>
     <t>Dato</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Sidiki Conde</t>
+  </si>
+  <si>
+    <t>Preben Nyheim Røyseth</t>
   </si>
 </sst>
 </file>
@@ -15243,202 +15246,928 @@
       </c>
     </row>
     <row r="1058">
-      <c r="B1058" s="1"/>
+      <c r="A1058" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1059">
-      <c r="B1059" s="1"/>
+      <c r="A1059" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1060">
-      <c r="B1060" s="1"/>
+      <c r="A1060" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1061">
-      <c r="B1061" s="1"/>
+      <c r="A1061" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1062">
-      <c r="B1062" s="1"/>
+      <c r="A1062" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1063">
-      <c r="B1063" s="1"/>
+      <c r="A1063" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1064">
-      <c r="B1064" s="1"/>
+      <c r="A1064" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1065">
-      <c r="B1065" s="1"/>
+      <c r="A1065" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1066">
-      <c r="B1066" s="1"/>
+      <c r="A1066" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1067">
-      <c r="B1067" s="1"/>
+      <c r="A1067" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1068">
-      <c r="B1068" s="1"/>
+      <c r="A1068" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1069">
-      <c r="B1069" s="1"/>
+      <c r="A1069" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1070">
-      <c r="B1070" s="1"/>
+      <c r="A1070" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1071">
-      <c r="B1071" s="1"/>
+      <c r="A1071" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1072">
-      <c r="B1072" s="1"/>
+      <c r="A1072" s="1">
+        <v>2.0251117E7</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1073">
-      <c r="B1073" s="1"/>
+      <c r="A1073" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1074">
-      <c r="B1074" s="1"/>
+      <c r="A1074" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1075">
-      <c r="B1075" s="1"/>
+      <c r="A1075" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1076">
-      <c r="B1076" s="1"/>
+      <c r="A1076" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1077">
-      <c r="B1077" s="1"/>
+      <c r="A1077" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1078">
-      <c r="B1078" s="1"/>
+      <c r="A1078" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1079">
-      <c r="B1079" s="1"/>
+      <c r="A1079" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1080">
-      <c r="B1080" s="1"/>
+      <c r="A1080" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1081">
-      <c r="B1081" s="1"/>
+      <c r="A1081" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1082">
-      <c r="B1082" s="1"/>
+      <c r="A1082" s="1">
+        <v>2.0251124E7</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1082" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1083">
-      <c r="B1083" s="1"/>
+      <c r="A1083" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1084">
-      <c r="B1084" s="1"/>
+      <c r="A1084" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1085">
-      <c r="B1085" s="1"/>
+      <c r="A1085" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1086">
-      <c r="B1086" s="1"/>
+      <c r="A1086" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1087">
-      <c r="B1087" s="1"/>
+      <c r="A1087" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1088">
-      <c r="B1088" s="1"/>
+      <c r="A1088" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1089">
-      <c r="B1089" s="1"/>
+      <c r="A1089" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1090">
-      <c r="B1090" s="1"/>
+      <c r="A1090" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1091">
-      <c r="B1091" s="1"/>
+      <c r="A1091" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1092">
-      <c r="B1092" s="1"/>
+      <c r="A1092" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1093">
-      <c r="B1093" s="1"/>
+      <c r="A1093" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1094">
-      <c r="B1094" s="1"/>
+      <c r="A1094" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1095">
-      <c r="B1095" s="1"/>
+      <c r="A1095" s="1">
+        <v>2.0251201E7</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1096">
-      <c r="B1096" s="1"/>
+      <c r="A1096" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1097">
-      <c r="B1097" s="1"/>
+      <c r="A1097" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1098">
-      <c r="B1098" s="1"/>
+      <c r="A1098" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1099">
-      <c r="B1099" s="1"/>
+      <c r="A1099" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1100">
-      <c r="B1100" s="1"/>
+      <c r="A1100" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1101">
-      <c r="B1101" s="1"/>
+      <c r="A1101" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1102">
-      <c r="B1102" s="1"/>
+      <c r="A1102" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1103">
-      <c r="B1103" s="1"/>
+      <c r="A1103" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1104">
-      <c r="B1104" s="1"/>
+      <c r="A1104" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1105">
-      <c r="B1105" s="1"/>
+      <c r="A1105" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1106">
-      <c r="B1106" s="1"/>
+      <c r="A1106" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1107">
-      <c r="B1107" s="1"/>
+      <c r="A1107" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1108">
-      <c r="B1108" s="1"/>
+      <c r="A1108" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1109">
-      <c r="B1109" s="1"/>
+      <c r="A1109" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1110">
-      <c r="B1110" s="1"/>
+      <c r="A1110" s="1">
+        <v>2.0251208E7</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1111">
-      <c r="B1111" s="1"/>
+      <c r="A1111" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1112">
-      <c r="B1112" s="1"/>
+      <c r="A1112" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1113">
-      <c r="B1113" s="1"/>
+      <c r="A1113" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1114">
-      <c r="B1114" s="1"/>
+      <c r="A1114" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1115">
-      <c r="B1115" s="1"/>
+      <c r="A1115" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1116">
-      <c r="B1116" s="1"/>
+      <c r="A1116" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1117">
-      <c r="B1117" s="1"/>
+      <c r="A1117" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1118">
-      <c r="B1118" s="1"/>
+      <c r="A1118" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1119">
-      <c r="B1119" s="1"/>
+      <c r="A1119" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1120">
-      <c r="B1120" s="1"/>
+      <c r="A1120" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1121">
-      <c r="B1121" s="1"/>
+      <c r="A1121" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1122">
-      <c r="B1122" s="1"/>
+      <c r="A1122" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1123">
-      <c r="B1123" s="1"/>
+      <c r="A1123" s="1">
+        <v>2.0251214E7</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1124">
       <c r="B1124" s="1"/>

--- a/treningsdata.xlsx
+++ b/treningsdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="58">
   <si>
     <t>Dato</t>
   </si>
@@ -16170,49 +16170,214 @@
       </c>
     </row>
     <row r="1124">
-      <c r="B1124" s="1"/>
+      <c r="A1124" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1125">
-      <c r="B1125" s="1"/>
+      <c r="A1125" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1126">
-      <c r="B1126" s="1"/>
+      <c r="A1126" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1127">
-      <c r="B1127" s="1"/>
+      <c r="A1127" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1128">
-      <c r="B1128" s="1"/>
+      <c r="A1128" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1129">
-      <c r="B1129" s="1"/>
+      <c r="A1129" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1130">
-      <c r="B1130" s="1"/>
+      <c r="A1130" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1131">
-      <c r="B1131" s="1"/>
+      <c r="A1131" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1132">
-      <c r="B1132" s="1"/>
+      <c r="A1132" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1133">
-      <c r="B1133" s="1"/>
+      <c r="A1133" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1134">
-      <c r="B1134" s="1"/>
+      <c r="A1134" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1135">
-      <c r="B1135" s="1"/>
+      <c r="A1135" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1136">
-      <c r="B1136" s="1"/>
+      <c r="A1136" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1137">
-      <c r="B1137" s="1"/>
+      <c r="A1137" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1138">
-      <c r="B1138" s="1"/>
+      <c r="A1138" s="1">
+        <v>2.0251227E7</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1139">
       <c r="B1139" s="1"/>
